--- a/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>39,13; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>40,26; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>68,98; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>76,2; 97,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>80,5; 97,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>96,25; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>88,83; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>93,44; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>97,18; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>90,67; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>95,04; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>97,75; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>91,46; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>85,51; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>91,82; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>89,08; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>69,77; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>97,26; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>94,77; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>98,36; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>98,0; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,41%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>97,96; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>94,17; 99,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>97,5; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>94,73; 98,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>98,23; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>70,21; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,13; 100,0</t>
+          <t>75,92; 97,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,26; 100,0</t>
+          <t>81,02; 96,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>97,75; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>97,1; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,98; 100,0</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,2; 97,13</t>
+          <t>88,83; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100</t>
+          <t>93,44; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,45; 100</t>
+          <t>97,18; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,5; 97,72</t>
+          <t>90,67; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,45; 100</t>
+          <t>95,04; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,25; 100</t>
+          <t>97,75; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,22; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,83; 100,0</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,44; 100,0</t>
+          <t>91,46; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,18; 100</t>
+          <t>85,51; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,67; 100,0</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,04; 100,0</t>
+          <t>91,82; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,75; 100</t>
+          <t>89,08; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -982,27 +982,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>69,77; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100</t>
+          <t>97,26; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,46; 100,0</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,51; 100,0</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 100</t>
+          <t>94,77; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,82; 100,0</t>
+          <t>98,36; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,08; 100,0</t>
+          <t>98,0; 100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,41%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,77; 100,0</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,04; 100</t>
+          <t>97,96; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100</t>
+          <t>94,17; 99,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,77; 100</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,14; 100</t>
+          <t>97,5; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,77; 100,0</t>
+          <t>94,73; 98,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,36; 100</t>
+          <t>98,23; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,0; 100</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>97,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>97,41%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>97,38%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,44%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>91,12; 100,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>97,96; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>97,38; 100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>94,17; 99,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>97,02; 100,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>97,5; 100,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>94,73; 98,92</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>98,23; 100,0</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>97,9; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,21; 100,0</t>
+          <t>75,32; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,92; 97,01</t>
+          <t>76,54; 97,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,02; 96,64</t>
+          <t>82,49; 96,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -810,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,83; 100,0</t>
+          <t>88,84; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,44; 100,0</t>
+          <t>92,29; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,67; 100,0</t>
+          <t>91,61; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,04; 100,0</t>
+          <t>95,57; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -925,12 +926,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,46; 100,0</t>
+          <t>89,47; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,51; 100,0</t>
+          <t>85,55; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,82; 100,0</t>
+          <t>91,35; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,08; 100,0</t>
+          <t>88,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,77; 100,0</t>
+          <t>75,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,77; 100,0</t>
+          <t>95,14; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,12; 100,0</t>
+          <t>90,32; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,17; 99,05</t>
+          <t>94,22; 99,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,31; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,5; 100,0</t>
+          <t>97,27; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,73; 98,92</t>
+          <t>94,78; 98,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,23; 100,0</t>
+          <t>98,28; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>97,9; 100,0</t>
+          <t>98,16; 100,0</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos antidepresivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19360</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17921</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11370</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36719</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68032</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56821</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56078</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85954</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68190</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15348; 20378</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16131; 17921</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9586; 11370</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31360; 39947</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66088; 68032</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>54844; 56821</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>50608; 59376</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84017; 85954</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66212; 68190</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22334</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35217</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17593</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61622</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>82249</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>74906</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>83956</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>117466</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92498</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20404; 22334</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33181; 35217</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15740; 17593</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55916; 62942</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76911; 83336</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72797; 74906</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>78119; 85276</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>113295; 118553</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90413; 92498</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15601</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39298</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54485</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39512</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48039</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70703</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55113</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7103; 8741</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13865; 16217</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13755; 15601</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37467; 39298</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>49800; 55661</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35437; 41421</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46202; 48039</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65659; 71879</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>50573; 57022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15991</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35598</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28475</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71958</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>89575</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74887</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87949</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>125174</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>103362</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12626; 16835</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33476; 35598</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26665; 28475</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69990; 71958</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87579; 89575</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>72747; 74887</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84475; 88793</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>123123; 125174</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>101299; 103362</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104954</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>73039</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>209596</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>294341</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>246125</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>276022</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>399295</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>319164</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>61678; 68288</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>102814; 104954</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>71123; 73039</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>202739; 213138</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>288637; 296605</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>241251; 248034</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>268664; 280180</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>394661; 401559</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>315174; 321073</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>